--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.022520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.022520.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1643,12 +1643,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2399,12 +2399,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3113,12 +3113,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3239,12 +3239,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
